--- a/3_Amazon_Test_Cases/TestSuite.xlsx
+++ b/3_Amazon_Test_Cases/TestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -14,12 +14,15 @@
     <sheet name="Search" sheetId="5" r:id="rId5"/>
     <sheet name="Verify Product" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="a0">Login!$B$1048575</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="165">
   <si>
     <t>S.No</t>
   </si>
@@ -238,6 +241,282 @@
   </si>
   <si>
     <t>Check if no captial letter provided</t>
+  </si>
+  <si>
+    <t>Login Page opens successfully</t>
+  </si>
+  <si>
+    <t>Email/Mobile Phone</t>
+  </si>
+  <si>
+    <t>Check if text box is present and takes input</t>
+  </si>
+  <si>
+    <t>Check box is present and takes input</t>
+  </si>
+  <si>
+    <t>Input without @ must be 10 digit mobile number</t>
+  </si>
+  <si>
+    <t>Gives error on input numbers not having 10 digits without @</t>
+  </si>
+  <si>
+    <t>Gives error to recheck input</t>
+  </si>
+  <si>
+    <t>Input with @ must be a valid email address</t>
+  </si>
+  <si>
+    <t>Verify the email from database and enable continue option</t>
+  </si>
+  <si>
+    <t>Verify email from database and enable continue option</t>
+  </si>
+  <si>
+    <t>Input with @ without verified email provider</t>
+  </si>
+  <si>
+    <t>Gives error that email is incorrect</t>
+  </si>
+  <si>
+    <t>Sign Up Option</t>
+  </si>
+  <si>
+    <t>User is not registered in domain</t>
+  </si>
+  <si>
+    <t>User credentials not found in database</t>
+  </si>
+  <si>
+    <t>Tell the user that his mobile/email is not registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell the user that his mobile/email is not registered </t>
+  </si>
+  <si>
+    <t>Need Help</t>
+  </si>
+  <si>
+    <t>User is registered but cannot sign in</t>
+  </si>
+  <si>
+    <t>Check if Forgot password option is present and clickable</t>
+  </si>
+  <si>
+    <t>Forgot password option is present and clickable</t>
+  </si>
+  <si>
+    <t>Check if community help for other issues is present</t>
+  </si>
+  <si>
+    <t>Other issues with sign in options are present</t>
+  </si>
+  <si>
+    <t>Check if correct password is accepted</t>
+  </si>
+  <si>
+    <t>Correct password is authenticated</t>
+  </si>
+  <si>
+    <t>Mobile/Email is verified</t>
+  </si>
+  <si>
+    <t>Check the amount of times wrong password leads to retry</t>
+  </si>
+  <si>
+    <t>3 retries must be given</t>
+  </si>
+  <si>
+    <t>3 retires are given</t>
+  </si>
+  <si>
+    <t>Check if remember password option is available</t>
+  </si>
+  <si>
+    <t>Check password option is present</t>
+  </si>
+  <si>
+    <t>OTP Verification</t>
+  </si>
+  <si>
+    <t>Check if verify by OTP option is present and clickable</t>
+  </si>
+  <si>
+    <t>OTP Verification is present</t>
+  </si>
+  <si>
+    <t>OTP verification is present</t>
+  </si>
+  <si>
+    <t>Switch Accounts</t>
+  </si>
+  <si>
+    <t>Mobile/Email is not the account we want to log onto</t>
+  </si>
+  <si>
+    <t>Check if change option is present along the user credentials</t>
+  </si>
+  <si>
+    <t>Change option is present and clickable</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Test Cases</t>
+  </si>
+  <si>
+    <t>Passed Test Cases</t>
+  </si>
+  <si>
+    <t>Failed Test Cases</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Verify Products</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Verify Ecommerce Web Application items</t>
+  </si>
+  <si>
+    <t>Product page should be up and running</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Check Details link is present and clickable.</t>
+  </si>
+  <si>
+    <t>Details link should be present</t>
+  </si>
+  <si>
+    <t>Details link present next to product image</t>
+  </si>
+  <si>
+    <t>Check EMI options link is present and clickable.</t>
+  </si>
+  <si>
+    <t>EMI options link should be present</t>
+  </si>
+  <si>
+    <t>EMI options link present below details of product link</t>
+  </si>
+  <si>
+    <t>Check Pay On Delivery link is present and clickable.</t>
+  </si>
+  <si>
+    <t>Pay On Delivery link should be present</t>
+  </si>
+  <si>
+    <t>Pay On Delivery link present below EMI options link</t>
+  </si>
+  <si>
+    <t>Check 10 Days Replacement link is present and clickable.</t>
+  </si>
+  <si>
+    <t>10 Days Replacement link should be present</t>
+  </si>
+  <si>
+    <t>10 Days Replacement link present right to Pay on Delivery link</t>
+  </si>
+  <si>
+    <t>Check Amazon Delivered link is present and clickable.</t>
+  </si>
+  <si>
+    <t>Amazon Delivered link should be present</t>
+  </si>
+  <si>
+    <t>Amazon Delivered link present right to 10 Days Replacement link</t>
+  </si>
+  <si>
+    <t>Check 1 Year Warrenty link is present and clickable.</t>
+  </si>
+  <si>
+    <t>1 Year Warrenty link should be present</t>
+  </si>
+  <si>
+    <t>1 Year Warrenty link present right to Amazon Delivered link</t>
+  </si>
+  <si>
+    <t>Check With Exchangebutton is present and clickable.</t>
+  </si>
+  <si>
+    <t>With Exchangebutton should be present</t>
+  </si>
+  <si>
+    <t>With Exchange button is present to the right extreme of the page</t>
+  </si>
+  <si>
+    <t>Check With Out Exchange button is present and clickable.</t>
+  </si>
+  <si>
+    <t>With Out Exchange button should be present</t>
+  </si>
+  <si>
+    <t>With Out Exchangebutton is present to the right extreme of the page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Text Box Inputs </t>
+  </si>
+  <si>
+    <t>Check Acko 1-year Total Damage Protection button is present and clickable.</t>
+  </si>
+  <si>
+    <t>Acko 1-year Total Damage Protection button should be present</t>
+  </si>
+  <si>
+    <t>Acko 1-year Total Damage Protectionbutton is present below With out exchange button</t>
+  </si>
+  <si>
+    <t>Check Add to Cart  button is present and clickable.</t>
+  </si>
+  <si>
+    <t>Add to Cart  button should be present</t>
+  </si>
+  <si>
+    <t>Add to Cart button is present below Acko 1-year Total Damage Protection button</t>
+  </si>
+  <si>
+    <t>Check Buy now button is present and clickable.</t>
+  </si>
+  <si>
+    <t>Buy now button should be present</t>
+  </si>
+  <si>
+    <t>Buy nowbutton is present below Add to Cart button</t>
+  </si>
+  <si>
+    <t>Check Privacy Notice link is present and clickable.</t>
+  </si>
+  <si>
+    <t>Privacy Notice link should be present</t>
+  </si>
+  <si>
+    <t>Privacy Notice link present right to Conditions of Use &amp; Sale link</t>
+  </si>
+  <si>
+    <t>Check Help link is present and clickable.</t>
+  </si>
+  <si>
+    <t>Help link should be present</t>
+  </si>
+  <si>
+    <t>Help link present right to Privacy Notice link</t>
   </si>
 </sst>
 </file>
@@ -285,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,6 +581,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,13 +882,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C6:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:7">
+      <c r="C6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="8">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="8">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="8">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="8">
+        <v>13</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="D12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E7:E11)</f>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -610,7 +997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -1070,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1508,26 +1897,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31" style="4" customWidth="1"/>
+    <col min="8" max="8" width="30" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
@@ -1571,32 +1962,455 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="5">
+        <v>43841</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="5">
+        <v>43841</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="5">
+        <v>43841</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="5">
+        <v>43841</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="5">
+        <v>43841</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="5">
+        <v>43841</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="5">
+        <v>43841</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="5">
+        <v>43841</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="5">
+        <v>43841</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="5">
+        <v>43841</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="5">
+        <v>43841</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="45">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="5">
+        <v>43841</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
@@ -1639,6 +2453,228 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5">
+        <v>43842</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="5">
+        <v>43842</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="5">
+        <v>43842</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="5">
+        <v>43842</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="5">
+        <v>43842</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="5">
+        <v>43842</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1">
+      <c r="J11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1647,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1709,6 +2745,347 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" ht="45">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="45">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="45">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="45">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="45">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="75">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="60">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="60">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="45">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3_Amazon_Test_Cases/TestSuite.xlsx
+++ b/3_Amazon_Test_Cases/TestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="167">
   <si>
     <t>S.No</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Check if spaces are allowed</t>
   </si>
   <si>
-    <t>Yes, Spaces are allowed.</t>
-  </si>
-  <si>
     <t>Spaces are allowed. It can be username or Full name</t>
   </si>
   <si>
@@ -517,6 +514,15 @@
   </si>
   <si>
     <t>Help link present right to Privacy Notice link</t>
+  </si>
+  <si>
+    <t>Homepage is loaded successfully</t>
+  </si>
+  <si>
+    <t>Spaces are allowed</t>
+  </si>
+  <si>
+    <t>Presence of check box</t>
   </si>
 </sst>
 </file>
@@ -884,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C6:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -901,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="3:7">
@@ -918,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="8">
         <v>8</v>
@@ -931,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="8">
         <v>10</v>
@@ -944,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="8">
         <v>11</v>
@@ -957,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="8">
         <v>6</v>
@@ -970,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="8">
         <v>13</v>
@@ -980,7 +986,7 @@
     </row>
     <row r="12" spans="3:7">
       <c r="D12" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12">
         <f>SUM(E7:E11)</f>
@@ -998,7 +1004,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1178,7 +1184,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -1215,7 +1221,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -1252,7 +1258,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
@@ -1289,7 +1295,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -1326,7 +1332,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -1459,9 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -1541,10 +1545,10 @@
         <v>43</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="5">
@@ -1575,13 +1579,13 @@
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="5">
@@ -1612,13 +1616,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="5">
@@ -1649,13 +1653,13 @@
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="5">
@@ -1686,13 +1690,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="5">
@@ -1711,7 +1715,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>41</v>
@@ -1723,13 +1727,13 @@
         <v>13</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="5">
@@ -1748,7 +1752,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>41</v>
@@ -1760,13 +1764,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="5">
@@ -1785,7 +1789,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>41</v>
@@ -1797,13 +1801,13 @@
         <v>13</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5">
@@ -1822,7 +1826,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>41</v>
@@ -1834,13 +1838,13 @@
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="5">
@@ -1858,7 +1862,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>41</v>
@@ -1870,13 +1874,13 @@
         <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5">
@@ -1899,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1967,25 +1971,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="J2" s="5">
         <v>43841</v>
@@ -2002,10 +2006,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
@@ -2014,13 +2018,13 @@
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="J3" s="5">
         <v>43841</v>
@@ -2037,10 +2041,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -2049,13 +2053,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="J4" s="5">
         <v>43841</v>
@@ -2072,10 +2076,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -2084,13 +2088,13 @@
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" s="5">
         <v>43841</v>
@@ -2107,25 +2111,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="J6" s="5">
         <v>43841</v>
@@ -2142,25 +2146,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J7" s="5">
         <v>43841</v>
@@ -2177,11 +2181,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
@@ -2189,13 +2193,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" s="5">
         <v>43841</v>
@@ -2212,10 +2216,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -2224,13 +2228,13 @@
         <v>13</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J9" s="5">
         <v>43841</v>
@@ -2247,25 +2251,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="J10" s="5">
         <v>43841</v>
@@ -2282,10 +2286,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
@@ -2294,13 +2298,13 @@
         <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="H11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J11" s="5">
         <v>43841</v>
@@ -2317,25 +2321,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="J12" s="5">
         <v>43841</v>
@@ -2352,25 +2356,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J13" s="5">
         <v>43841</v>
@@ -2750,25 +2754,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="45">
@@ -2776,25 +2780,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="45">
@@ -2802,25 +2806,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="45">
@@ -2828,25 +2832,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="45">
@@ -2854,25 +2858,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="45">
@@ -2880,25 +2884,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="45">
@@ -2906,25 +2910,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="60">
@@ -2932,25 +2936,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="75">
@@ -2958,25 +2962,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="60">
@@ -2984,25 +2988,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="45">
@@ -3010,25 +3014,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="60">
@@ -3036,25 +3040,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="45">
@@ -3062,25 +3066,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:13">

--- a/3_Amazon_Test_Cases/TestSuite.xlsx
+++ b/3_Amazon_Test_Cases/TestSuite.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="168">
   <si>
     <t>S.No</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>Presence of check box</t>
+  </si>
+  <si>
+    <t>Remark</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -566,17 +569,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -587,13 +602,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,7 +922,7 @@
   <dimension ref="C6:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -903,95 +934,98 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:7">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>8</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>10</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>11</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>4</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>6</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="8">
-        <v>13</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="E11" s="6">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <f>SUM(E7:E11)</f>
         <v>48</v>
       </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1003,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1025,431 +1059,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
+      <c r="M1" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5">
+      <c r="I2" s="11"/>
+      <c r="J2" s="12">
         <v>43839</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="K2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="10">
         <v>1</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5">
+      <c r="I3" s="11"/>
+      <c r="J3" s="12">
         <v>43839</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5">
+      <c r="I4" s="11"/>
+      <c r="J4" s="12">
         <v>43839</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="K4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5">
+      <c r="I5" s="11"/>
+      <c r="J5" s="12">
         <v>43840</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="K5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="10">
         <v>1</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5">
+      <c r="I6" s="11"/>
+      <c r="J6" s="12">
         <v>43840</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="K6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5">
+      <c r="I7" s="11"/>
+      <c r="J7" s="12">
         <v>43840</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="K7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5">
+      <c r="I8" s="11"/>
+      <c r="J8" s="12">
         <v>43840</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="K8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="10">
         <v>1.2</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5">
+      <c r="I9" s="11"/>
+      <c r="J9" s="12">
         <v>43840</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="K9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="10">
         <v>1.2</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1"/>
     <row r="17" ht="30" customHeight="1"/>
@@ -1465,7 +1499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -1485,413 +1521,415 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.95" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="27.95" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5">
+      <c r="I2" s="11"/>
+      <c r="J2" s="12">
         <v>43841</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="4">
+      <c r="K2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="11">
         <v>1</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="27.95" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5">
+      <c r="I3" s="11"/>
+      <c r="J3" s="12">
         <v>43841</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="11">
         <v>1</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="27.95" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5">
+      <c r="I4" s="11"/>
+      <c r="J4" s="12">
         <v>43841</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="K4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="27.95" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5">
+      <c r="I5" s="11"/>
+      <c r="J5" s="12">
         <v>43841</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="K5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="27.95" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5">
+      <c r="I6" s="11"/>
+      <c r="J6" s="12">
         <v>43841</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="27.95" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5">
+      <c r="I7" s="11"/>
+      <c r="J7" s="12">
         <v>43842</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="K7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="27.95" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5">
+      <c r="I8" s="11"/>
+      <c r="J8" s="12">
         <v>43842</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="K8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="27.95" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5">
+      <c r="I9" s="11"/>
+      <c r="J9" s="12">
         <v>43842</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="K9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="11">
         <v>1.2</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" ht="27.95" customHeight="1">
-      <c r="A10" s="1">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5">
+      <c r="I10" s="11"/>
+      <c r="J10" s="12">
         <v>43842</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="K10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="11">
         <v>1.2</v>
       </c>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="27.95" customHeight="1">
-      <c r="A11" s="1">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="D11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5">
+      <c r="I11" s="11"/>
+      <c r="J11" s="12">
         <v>43842</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>1.2</v>
       </c>
+      <c r="M11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1903,488 +1941,512 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31" style="4" customWidth="1"/>
-    <col min="8" max="8" width="30" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="7.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="5">
+      <c r="I2" s="11"/>
+      <c r="J2" s="12">
         <v>43841</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="4">
+      <c r="K2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="11">
         <v>1</v>
       </c>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="5">
+      <c r="I3" s="11"/>
+      <c r="J3" s="12">
         <v>43841</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="11">
         <v>1.1000000000000001</v>
       </c>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="5">
+      <c r="I4" s="11"/>
+      <c r="J4" s="12">
         <v>43841</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="K4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="11">
         <v>1.1000000000000001</v>
       </c>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="30">
-      <c r="A5" s="3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="5">
+      <c r="I5" s="11"/>
+      <c r="J5" s="12">
         <v>43841</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="K5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="11">
         <v>1.2</v>
       </c>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="5">
+      <c r="I6" s="11"/>
+      <c r="J6" s="12">
         <v>43841</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="11">
         <v>1.2</v>
       </c>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="5">
+      <c r="I7" s="11"/>
+      <c r="J7" s="12">
         <v>43841</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="K7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="11">
         <v>1.2</v>
       </c>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="30">
-      <c r="A8" s="3">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="5">
+      <c r="I8" s="11"/>
+      <c r="J8" s="12">
         <v>43841</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="K8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="11">
         <v>1.3</v>
       </c>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="5">
+      <c r="I9" s="11"/>
+      <c r="J9" s="12">
         <v>43841</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="K9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="11">
         <v>1.3</v>
       </c>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" ht="30">
-      <c r="A10" s="3">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="5">
+      <c r="I10" s="11"/>
+      <c r="J10" s="12">
         <v>43841</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="K10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="11">
         <v>1.3</v>
       </c>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="D11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="5">
+      <c r="I11" s="11"/>
+      <c r="J11" s="12">
         <v>43841</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>1.3</v>
       </c>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" ht="30">
-      <c r="A12" s="3">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="D12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="5">
+      <c r="I12" s="11"/>
+      <c r="J12" s="12">
         <v>43841</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="K12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="11">
         <v>1.3</v>
       </c>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="45">
-      <c r="A13" s="3">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="D13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="5">
+      <c r="I13" s="11"/>
+      <c r="J13" s="12">
         <v>43841</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>1.3</v>
       </c>
+      <c r="M13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2397,288 +2459,300 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D5" sqref="A1:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="7.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="5">
+      <c r="I2" s="11"/>
+      <c r="J2" s="12">
         <v>43842</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="4">
+      <c r="K2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="11">
         <v>1</v>
       </c>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="5">
+      <c r="I3" s="11"/>
+      <c r="J3" s="12">
         <v>43842</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="11">
         <v>1.1000000000000001</v>
       </c>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="5">
+      <c r="I4" s="11"/>
+      <c r="J4" s="12">
         <v>43842</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="K4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="11">
         <v>1.1000000000000001</v>
       </c>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="5">
+      <c r="I5" s="11"/>
+      <c r="J5" s="12">
         <v>43842</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="K5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="11">
         <v>1.1000000000000001</v>
       </c>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="5">
+      <c r="I6" s="11"/>
+      <c r="J6" s="12">
         <v>43842</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="11">
         <v>1.2</v>
       </c>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="5">
+      <c r="I7" s="11"/>
+      <c r="J7" s="12">
         <v>43842</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="K7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="11">
         <v>1.2</v>
       </c>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1">
-      <c r="J8" s="5"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1">
-      <c r="J9" s="5"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1">
-      <c r="J10" s="5"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1">
-      <c r="J11" s="5"/>
+      <c r="J11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2690,405 +2764,407 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="7"/>
+    <col min="12" max="12" width="14.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="45">
-      <c r="A2" s="4">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="45">
-      <c r="A3" s="4">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="45">
-      <c r="A4" s="4">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="45">
-      <c r="A5" s="4">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="45">
-      <c r="A6" s="4">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="45">
-      <c r="A7" s="4">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="45">
-      <c r="A8" s="4">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="11" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="60">
-      <c r="A9" s="4">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="11" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="75">
-      <c r="A10" s="4">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="60">
-      <c r="A11" s="4">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="11" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="4">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="60">
-      <c r="A13" s="4">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="45">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
+      <c r="A15" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3_Amazon_Test_Cases/TestSuite.xlsx
+++ b/3_Amazon_Test_Cases/TestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="168">
   <si>
     <t>S.No</t>
   </si>
@@ -588,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,6 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1941,13 +1942,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="3" customWidth="1"/>
@@ -1955,9 +1956,9 @@
     <col min="6" max="6" width="29.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="31" style="3" customWidth="1"/>
     <col min="8" max="8" width="30" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="3" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="3"/>
@@ -2031,7 +2032,7 @@
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="12">
-        <v>43841</v>
+        <v>43852</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>18</v>
@@ -2458,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:M7"/>
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2761,15 +2762,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="13" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="7" customWidth="1"/>
@@ -2778,7 +2779,8 @@
     <col min="7" max="7" width="22.85546875" style="7" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="7" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="7"/>
+    <col min="10" max="10" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="7"/>
     <col min="12" max="12" width="14.140625" style="7" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="7" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="7"/>
@@ -2826,7 +2828,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="45">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2850,9 +2852,18 @@
       <c r="H2" s="11" t="s">
         <v>126</v>
       </c>
+      <c r="J2" s="14">
+        <v>43852</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="45">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -2876,9 +2887,18 @@
       <c r="H3" s="11" t="s">
         <v>129</v>
       </c>
+      <c r="J3" s="14">
+        <v>43852</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="45">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -2902,9 +2922,18 @@
       <c r="H4" s="11" t="s">
         <v>132</v>
       </c>
+      <c r="J4" s="14">
+        <v>43852</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="45">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2928,9 +2957,18 @@
       <c r="H5" s="11" t="s">
         <v>135</v>
       </c>
+      <c r="J5" s="14">
+        <v>43852</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="45">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -2954,9 +2992,18 @@
       <c r="H6" s="11" t="s">
         <v>138</v>
       </c>
+      <c r="J6" s="14">
+        <v>43852</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="45">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2980,9 +3027,18 @@
       <c r="H7" s="11" t="s">
         <v>141</v>
       </c>
+      <c r="J7" s="14">
+        <v>43852</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="45">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3006,9 +3062,18 @@
       <c r="H8" s="11" t="s">
         <v>144</v>
       </c>
+      <c r="J8" s="14">
+        <v>43852</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="60">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -3032,9 +3097,18 @@
       <c r="H9" s="11" t="s">
         <v>147</v>
       </c>
+      <c r="J9" s="14">
+        <v>43852</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="75">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -3058,9 +3132,18 @@
       <c r="H10" s="11" t="s">
         <v>151</v>
       </c>
+      <c r="J10" s="14">
+        <v>43852</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="60">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -3084,9 +3167,18 @@
       <c r="H11" s="11" t="s">
         <v>154</v>
       </c>
+      <c r="J11" s="14">
+        <v>43852</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -3110,9 +3202,18 @@
       <c r="H12" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="J12" s="14">
+        <v>43852</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="60">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -3136,9 +3237,18 @@
       <c r="H13" s="11" t="s">
         <v>160</v>
       </c>
+      <c r="J13" s="14">
+        <v>43852</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="45">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -3162,9 +3272,15 @@
       <c r="H14" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="13"/>
+      <c r="J14" s="14">
+        <v>43852</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3_Amazon_Test_Cases/TestSuite.xlsx
+++ b/3_Amazon_Test_Cases/TestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>Available to left of search bar</t>
   </si>
   <si>
-    <t>Registration page opens up</t>
-  </si>
-  <si>
     <t>Your Name</t>
   </si>
   <si>
@@ -526,6 +523,9 @@
   </si>
   <si>
     <t>Remark</t>
+  </si>
+  <si>
+    <t>Registration page opened successfully</t>
   </si>
 </sst>
 </file>
@@ -939,16 +939,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="3:7">
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="6">
         <v>8</v>
@@ -969,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="6">
         <v>10</v>
@@ -982,7 +982,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="6">
         <v>11</v>
@@ -995,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="6">
         <v>6</v>
@@ -1008,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="6">
         <v>13</v>
@@ -1019,7 +1019,7 @@
     <row r="12" spans="3:7">
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="7">
         <f>SUM(E7:E11)</f>
@@ -1097,7 +1097,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1">
@@ -1219,7 +1219,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>16</v>
@@ -1256,7 +1256,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>16</v>
@@ -1293,7 +1293,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>16</v>
@@ -1330,7 +1330,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>16</v>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1567,25 +1567,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="12">
@@ -1604,10 +1604,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>16</v>
@@ -1616,13 +1616,13 @@
         <v>13</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="12">
@@ -1641,10 +1641,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>16</v>
@@ -1653,13 +1653,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="12">
@@ -1678,10 +1678,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>16</v>
@@ -1690,13 +1690,13 @@
         <v>13</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="12">
@@ -1715,10 +1715,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>16</v>
@@ -1727,13 +1727,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="12">
@@ -1752,25 +1752,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="12">
@@ -1789,25 +1789,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="12">
@@ -1826,10 +1826,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>16</v>
@@ -1838,13 +1838,13 @@
         <v>13</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="12">
@@ -1863,10 +1863,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>16</v>
@@ -1875,13 +1875,13 @@
         <v>13</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="H10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="12">
@@ -1900,10 +1900,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>16</v>
@@ -1912,13 +1912,13 @@
         <v>13</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="12">
@@ -2010,25 +2010,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="12">
@@ -2047,10 +2047,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>16</v>
@@ -2059,13 +2059,13 @@
         <v>13</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="12">
@@ -2084,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>16</v>
@@ -2096,13 +2096,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="12">
@@ -2121,10 +2121,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>16</v>
@@ -2133,13 +2133,13 @@
         <v>13</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="12">
@@ -2158,25 +2158,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="12">
@@ -2195,25 +2195,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="H7" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="12">
@@ -2232,11 +2232,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
@@ -2244,13 +2244,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="12">
@@ -2269,10 +2269,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>16</v>
@@ -2281,13 +2281,13 @@
         <v>13</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="H9" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="12">
@@ -2306,25 +2306,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="12">
@@ -2343,10 +2343,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>16</v>
@@ -2355,13 +2355,13 @@
         <v>13</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="H11" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="12">
@@ -2380,25 +2380,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="12">
@@ -2417,25 +2417,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="12">
@@ -2764,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -2832,25 +2832,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="J2" s="14">
         <v>43852</v>
@@ -2867,25 +2867,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="J3" s="14">
         <v>43852</v>
@@ -2902,25 +2902,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="J4" s="14">
         <v>43852</v>
@@ -2937,25 +2937,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="J5" s="14">
         <v>43852</v>
@@ -2972,25 +2972,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="J6" s="14">
         <v>43852</v>
@@ -3007,25 +3007,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="J7" s="14">
         <v>43852</v>
@@ -3042,25 +3042,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="E8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="J8" s="14">
         <v>43852</v>
@@ -3077,25 +3077,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="E9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="J9" s="14">
         <v>43852</v>
@@ -3112,25 +3112,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="J10" s="14">
         <v>43852</v>
@@ -3147,25 +3147,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="J11" s="14">
         <v>43852</v>
@@ -3182,25 +3182,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="E12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="J12" s="14">
         <v>43852</v>
@@ -3217,25 +3217,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="J13" s="14">
         <v>43852</v>
@@ -3252,25 +3252,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="J14" s="14">
         <v>43852</v>
